--- a/assets/Steven Grossman - User Testing/Cognitive Walkthrough - Steven Grossman.xlsx
+++ b/assets/Steven Grossman - User Testing/Cognitive Walkthrough - Steven Grossman.xlsx
@@ -964,7 +964,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">NOW()</f>
-        <v>42704.943356944445</v>
+        <v>42716.839548611111</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21.75">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">NOW()</f>
-        <v>42704.943356944445</v>
+        <v>42716.839548611111</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21.75">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="D1" s="3">
         <f ca="1">NOW()</f>
-        <v>42704.943356944445</v>
+        <v>42716.839548611111</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21.75">
